--- a/testing/d1g_se.xlsx
+++ b/testing/d1g_se.xlsx
@@ -27,55 +27,52 @@
     <t xml:space="preserve">  1</t>
   </si>
   <si>
-    <t>(0.122)</t>
-  </si>
-  <si>
-    <t>(0.093)</t>
+    <t>(0.222)</t>
+  </si>
+  <si>
+    <t>(0.250)</t>
   </si>
   <si>
     <t xml:space="preserve">  2</t>
   </si>
   <si>
-    <t>(0.132)</t>
-  </si>
-  <si>
-    <t>(0.108)</t>
+    <t>(0.287)</t>
   </si>
   <si>
     <t xml:space="preserve">  3</t>
   </si>
   <si>
-    <t>(0.150)</t>
-  </si>
-  <si>
-    <t>(0.129)</t>
+    <t>(0.294)</t>
+  </si>
+  <si>
+    <t>(0.331)</t>
   </si>
   <si>
     <t xml:space="preserve">  4</t>
   </si>
   <si>
-    <t>(0.172)</t>
-  </si>
-  <si>
-    <t>(0.152)</t>
+    <t>(0.347)</t>
+  </si>
+  <si>
+    <t>(0.382)</t>
   </si>
   <si>
     <t xml:space="preserve">  5</t>
   </si>
   <si>
-    <t>(0.200)</t>
-  </si>
-  <si>
-    <t>(0.180)</t>
+    <t>(0.402)</t>
+  </si>
+  <si>
+    <t>(0.433)</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>(0.134)</t>
-  </si>
-  <si>
-    <t>(0.126)</t>
+    <t>(0.288)</t>
+  </si>
+  <si>
+    <t>(0.285)</t>
   </si>
   <si>
     <t>M1[i]</t>
@@ -93,43 +90,46 @@
     <t>var(M1[i])</t>
   </si>
   <si>
-    <t>(0.168)</t>
+    <t>(0.491)</t>
+  </si>
+  <si>
+    <t>(0.546)</t>
   </si>
   <si>
     <t>var(M2[i&gt;id])</t>
   </si>
   <si>
-    <t>(0.233)</t>
-  </si>
-  <si>
-    <t>(0.450)</t>
+    <t>(1.857)</t>
+  </si>
+  <si>
+    <t>(2.371)</t>
   </si>
   <si>
     <t>var(e.yobs)</t>
   </si>
   <si>
-    <t>(0.193)</t>
-  </si>
-  <si>
-    <t>(0.192)</t>
-  </si>
-  <si>
-    <t>(0.090)</t>
-  </si>
-  <si>
-    <t>(7.68e+05)</t>
-  </si>
-  <si>
-    <t>(0.087)</t>
-  </si>
-  <si>
-    <t>(0.289)</t>
+    <t>(0.960)</t>
+  </si>
+  <si>
+    <t>(0.946)</t>
+  </si>
+  <si>
+    <t>(0.061)</t>
+  </si>
+  <si>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.006)</t>
+  </si>
+  <si>
+    <t>(0.039)</t>
   </si>
   <si>
     <t>ln_p</t>
   </si>
   <si>
-    <t>(0.077)</t>
+    <t>(0.025)</t>
   </si>
   <si>
     <t>Number of observations</t>
@@ -2002,48 +2002,48 @@
         <v>6</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="30" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -2051,54 +2051,54 @@
         <v>3</v>
       </c>
       <c r="B9" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" s="56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="C13" s="74" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -2125,7 +2125,7 @@
     </row>
     <row r="16">
       <c r="A16" s="88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -2138,7 +2138,7 @@
     </row>
     <row r="18">
       <c r="A18" s="94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="96" t="s">
         <v>34</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="19">
       <c r="A19" s="98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="100" t="s">
         <v>35</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="20">
       <c r="A20" s="102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="104" t="s">
         <v>36</v>
@@ -2173,10 +2173,10 @@
         <v>39</v>
       </c>
       <c r="B22" s="115">
-        <v>7113</v>
+        <v>8050</v>
       </c>
       <c r="C22" s="119">
-        <v>8591</v>
+        <v>9932</v>
       </c>
     </row>
   </sheetData>
